--- a/ListasDatos/Rivera Cruz Ezequiel_2021.xlsx
+++ b/ListasDatos/Rivera Cruz Ezequiel_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1011">
   <si>
     <t>NC</t>
   </si>
@@ -1039,6 +1039,9 @@
     <t>buenojoso1951@gmail.com</t>
   </si>
   <si>
+    <t>cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>misaelcocotle3@gmail.com</t>
   </si>
   <si>
@@ -1144,6 +1147,9 @@
     <t>2721546150</t>
   </si>
   <si>
+    <t>2721079631</t>
+  </si>
+  <si>
     <t>2451221093</t>
   </si>
   <si>
@@ -1276,6 +1282,9 @@
     <t>JOSÉ SOCORRO BUENO GARCÍA</t>
   </si>
   <si>
+    <t>FRANCISCO JAVIER CORTÉZ LEYNES</t>
+  </si>
+  <si>
     <t>ANDRES COCOTLE MARTINEZ</t>
   </si>
   <si>
@@ -1372,6 +1381,9 @@
     <t>bernabejosealfredo718@gmail.com</t>
   </si>
   <si>
+    <t>Cristianantoniof2020@gmail.com</t>
+  </si>
+  <si>
     <t>Bernardino colotl@gmail.com</t>
   </si>
   <si>
@@ -1762,6 +1774,9 @@
     <t>adriana_arelycg@outlook.com</t>
   </si>
   <si>
+    <t>aisha.naomi05@hotmail.com</t>
+  </si>
+  <si>
     <t>arant0610@gmail.com</t>
   </si>
   <si>
@@ -1867,6 +1882,9 @@
     <t>2722088572</t>
   </si>
   <si>
+    <t>2721538846</t>
+  </si>
+  <si>
     <t>2721829816</t>
   </si>
   <si>
@@ -2014,7 +2032,7 @@
     <t>FERNANDO ELOY BUSTOS HERNÁNDEZ</t>
   </si>
   <si>
-    <t>KARINA JAQUELINE LEAL RIVERA CANSECO DIAZ LEAL RIVERA</t>
+    <t>KARINA JAQUELINE LEAL RIVERA</t>
   </si>
   <si>
     <t>MARIA ELENA GONZALEZ TINOCO</t>
@@ -2023,6 +2041,9 @@
     <t>JOSÉ ADRIÁN CRUZ BERISTAIN</t>
   </si>
   <si>
+    <t>JACINTO CRUZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>GREGORIO ARROYO MENDOZA</t>
   </si>
   <si>
@@ -2128,9 +2149,6 @@
     <t>lobatodaniel007@gmail.com</t>
   </si>
   <si>
-    <t>Kakakabs</t>
-  </si>
-  <si>
     <t>bonylopez119@gmail.com</t>
   </si>
   <si>
@@ -2183,6 +2201,9 @@
   </si>
   <si>
     <t>2722581860</t>
+  </si>
+  <si>
+    <t>2721757221</t>
   </si>
   <si>
     <t>2727221943</t>
@@ -4527,16 +4548,16 @@
         <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4556,19 +4577,19 @@
         <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4588,19 +4609,19 @@
         <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4620,16 +4641,16 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4649,16 +4670,16 @@
         <v>339</v>
       </c>
       <c r="F6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I6" t="s">
         <v>339</v>
       </c>
       <c r="J6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4674,6 +4695,21 @@
       <c r="D7" t="s">
         <v>308</v>
       </c>
+      <c r="E7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -4689,22 +4725,22 @@
         <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4721,22 +4757,22 @@
         <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4753,19 +4789,19 @@
         <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4782,22 +4818,22 @@
         <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="J11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4814,22 +4850,22 @@
         <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I12" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J12" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4846,22 +4882,22 @@
         <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I13" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="J13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4878,16 +4914,16 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4904,19 +4940,19 @@
         <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4933,22 +4969,22 @@
         <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H16" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4965,22 +5001,22 @@
         <v>316</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J17" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4997,19 +5033,19 @@
         <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H18" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I18" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="J18" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5026,22 +5062,22 @@
         <v>318</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H19" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I19" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5058,16 +5094,16 @@
         <v>319</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G20" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5084,22 +5120,22 @@
         <v>320</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H21" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I21" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="J21" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5116,19 +5152,19 @@
         <v>321</v>
       </c>
       <c r="E22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J22" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5145,22 +5181,22 @@
         <v>322</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H23" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J23" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5177,16 +5213,16 @@
         <v>323</v>
       </c>
       <c r="E24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H24" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J24" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5203,19 +5239,19 @@
         <v>324</v>
       </c>
       <c r="E25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H25" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="J25" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5232,19 +5268,19 @@
         <v>325</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H26" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J26" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5261,19 +5297,19 @@
         <v>326</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F27" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H27" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I27" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J27" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5290,19 +5326,19 @@
         <v>327</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J28" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5319,19 +5355,19 @@
         <v>328</v>
       </c>
       <c r="E29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H29" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="I29" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="J29" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5348,13 +5384,13 @@
         <v>329</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F30" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H30" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5371,19 +5407,19 @@
         <v>330</v>
       </c>
       <c r="E31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F31" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H31" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I31" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J31" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5400,22 +5436,22 @@
         <v>309</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G32" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I32" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J32" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5432,22 +5468,22 @@
         <v>331</v>
       </c>
       <c r="E33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F33" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G33" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H33" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="J33" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5464,19 +5500,19 @@
         <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F34" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H34" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I34" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J34" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5493,19 +5529,19 @@
         <v>333</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G35" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H35" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J35" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5522,22 +5558,22 @@
         <v>306</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F36" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G36" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H36" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I36" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J36" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5554,22 +5590,22 @@
         <v>334</v>
       </c>
       <c r="E37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F37" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G37" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H37" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I37" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="J37" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5631,31 +5667,31 @@
         <v>20330051920368</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G2" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H2" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="I2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5666,28 +5702,28 @@
         <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F3" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G3" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H3" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="I3" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5695,25 +5731,25 @@
         <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G4" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5721,31 +5757,31 @@
         <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G5" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H5" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="I5" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="J5" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5753,31 +5789,31 @@
         <v>20330051920369</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D6" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F6" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G6" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H6" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="I6" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J6" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5785,28 +5821,28 @@
         <v>20330051920160</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="J7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5814,28 +5850,28 @@
         <v>20330051920161</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D8" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E8" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F8" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G8" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H8" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="I8" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5846,25 +5882,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D9" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F9" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H9" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="I9" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="J9" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5878,25 +5914,25 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F10" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G10" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="H10" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="I10" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="J10" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5910,7 +5946,22 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>545</v>
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" t="s">
+        <v>621</v>
+      </c>
+      <c r="G11" t="s">
+        <v>621</v>
+      </c>
+      <c r="H11" t="s">
+        <v>674</v>
+      </c>
+      <c r="J11" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5918,31 +5969,31 @@
         <v>20330051920370</v>
       </c>
       <c r="B12" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G12" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="H12" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="I12" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="J12" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5953,28 +6004,28 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D13" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E13" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="G13" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="H13" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="I13" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="J13" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5982,31 +6033,31 @@
         <v>20330051920165</v>
       </c>
       <c r="B14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D14" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E14" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="G14" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="I14" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="J14" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6017,25 +6068,25 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D15" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E15" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F15" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H15" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I15" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="J15" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6043,28 +6094,28 @@
         <v>20330051920166</v>
       </c>
       <c r="B16" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D16" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E16" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F16" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="H16" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="I16" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="J16" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6072,31 +6123,31 @@
         <v>20330051920168</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F17" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G17" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="H17" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="I17" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="J17" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6104,28 +6155,28 @@
         <v>20330051920371</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D18" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F18" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G18" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H18" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="J18" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6133,28 +6184,28 @@
         <v>20330051920171</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E19" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="F19" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H19" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="I19" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="J19" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6162,31 +6213,28 @@
         <v>20330051920172</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E20" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G20" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H20" t="s">
-        <v>676</v>
-      </c>
-      <c r="I20" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="J20" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6200,25 +6248,25 @@
         <v>301</v>
       </c>
       <c r="D21" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E21" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F21" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G21" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H21" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="I21" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="J21" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6226,31 +6274,31 @@
         <v>20330051920174</v>
       </c>
       <c r="B22" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E22" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H22" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="I22" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="J22" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6258,28 +6306,28 @@
         <v>20330051920175</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F23" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G23" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H23" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="I23" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6287,31 +6335,31 @@
         <v>20330051920306</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E24" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F24" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G24" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H24" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="I24" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="J24" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6319,31 +6367,31 @@
         <v>20330051920177</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F25" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G25" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H25" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="I25" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="J25" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6351,25 +6399,25 @@
         <v>20330051920178</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E26" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F26" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G26" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="H26" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6383,22 +6431,22 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E27" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F27" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H27" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="I27" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="J27" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6406,31 +6454,31 @@
         <v>20330051920180</v>
       </c>
       <c r="B28" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C28" t="s">
         <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E28" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="F28" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="G28" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H28" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="I28" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="J28" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6438,31 +6486,31 @@
         <v>20330051920373</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E29" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F29" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G29" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H29" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="I29" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="J29" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6476,22 +6524,22 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E30" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F30" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="G30" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H30" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="J30" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6505,25 +6553,25 @@
         <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E31" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="F31" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G31" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H31" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="I31" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="J31" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6531,31 +6579,31 @@
         <v>20330051920393</v>
       </c>
       <c r="B32" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C32" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E32" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F32" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="G32" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H32" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="I32" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="J32" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6566,25 +6614,25 @@
         <v>286</v>
       </c>
       <c r="C33" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D33" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F33" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="H33" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="I33" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="J33" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6595,28 +6643,28 @@
         <v>280</v>
       </c>
       <c r="C34" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E34" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="F34" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="G34" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H34" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="I34" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="J34" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6627,28 +6675,28 @@
         <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D35" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E35" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F35" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G35" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H35" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="I35" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="J35" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6662,19 +6710,19 @@
         <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E36" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F36" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H36" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="J36" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6682,28 +6730,28 @@
         <v>20330051920388</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E37" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F37" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H37" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="I37" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="J37" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -6765,28 +6813,28 @@
         <v>20330051920187</v>
       </c>
       <c r="B2" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="E2" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="F2" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="H2" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="I2" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="J2" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6794,28 +6842,28 @@
         <v>20330051920220</v>
       </c>
       <c r="B3" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="E3" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="F3" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="G3" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="H3" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="J3" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6826,25 +6874,25 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D4" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E4" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="F4" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="H4" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="I4" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="J4" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6858,22 +6906,22 @@
         <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="E5" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="F5" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="H5" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="I5" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="J5" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6881,31 +6929,31 @@
         <v>20330051920222</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C6" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="E6" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="F6" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="G6" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="H6" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="I6" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="J6" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6913,28 +6961,28 @@
         <v>20330051920223</v>
       </c>
       <c r="B7" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C7" t="s">
         <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="E7" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="F7" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="H7" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="I7" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="J7" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6942,31 +6990,31 @@
         <v>20330051920224</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="E8" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="F8" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="G8" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="H8" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="I8" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="J8" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6977,25 +7025,25 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D9" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="E9" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="F9" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="G9" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="H9" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="J9" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7009,22 +7057,22 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="E10" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="F10" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="H10" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="I10" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7038,22 +7086,22 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="E11" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="F11" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="G11" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H11" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="J11" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7064,28 +7112,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="D12" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="E12" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="F12" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="G12" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="H12" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="I12" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="J12" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7096,28 +7144,28 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D13" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="E13" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="F13" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="G13" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="H13" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="I13" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="J13" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7131,25 +7179,25 @@
         <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E14" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="F14" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="G14" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="H14" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="I14" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="J14" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7160,25 +7208,25 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="D15" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="E15" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="F15" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="G15" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="H15" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="J15" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7189,28 +7237,28 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="D16" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E16" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="F16" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="G16" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="H16" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="I16" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="J16" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7218,31 +7266,31 @@
         <v>20330051920232</v>
       </c>
       <c r="B17" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D17" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="E17" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="F17" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="G17" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="H17" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="I17" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="J17" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7250,31 +7298,31 @@
         <v>20330051920233</v>
       </c>
       <c r="B18" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="C18" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D18" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="E18" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="F18" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="G18" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="H18" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="I18" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="J18" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7282,31 +7330,31 @@
         <v>20330051920234</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C19" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D19" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="E19" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="F19" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="G19" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H19" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="I19" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="J19" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7314,31 +7362,31 @@
         <v>20330051920376</v>
       </c>
       <c r="B20" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C20" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="D20" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="E20" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="F20" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="G20" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="H20" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="I20" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="J20" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7349,28 +7397,28 @@
         <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D21" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E21" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="F21" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G21" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="H21" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="I21" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="J21" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7378,28 +7426,28 @@
         <v>20330051920237</v>
       </c>
       <c r="B22" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C22" t="s">
         <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="E22" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="F22" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="H22" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="I22" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="J22" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7413,25 +7461,25 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="E23" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="F23" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="G23" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="H23" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="I23" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="J23" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7439,31 +7487,31 @@
         <v>20330051920239</v>
       </c>
       <c r="B24" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C24" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="D24" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="E24" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F24" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="G24" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="H24" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="I24" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="J24" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7477,25 +7525,25 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E25" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="F25" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="G25" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="H25" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="I25" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="J25" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7503,31 +7551,31 @@
         <v>20330051920241</v>
       </c>
       <c r="B26" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="E26" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="F26" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="G26" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="H26" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="I26" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="J26" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7535,31 +7583,31 @@
         <v>20330051920243</v>
       </c>
       <c r="B27" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="E27" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="F27" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="G27" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="H27" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="I27" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="J27" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7567,25 +7615,25 @@
         <v>20330051920244</v>
       </c>
       <c r="B28" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D28" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="E28" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="F28" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H28" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="J28" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7593,31 +7641,31 @@
         <v>20330051920245</v>
       </c>
       <c r="B29" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C29" t="s">
         <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="E29" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="F29" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="G29" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="H29" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="I29" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="J29" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7631,25 +7679,25 @@
         <v>283</v>
       </c>
       <c r="D30" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="E30" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F30" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="G30" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="H30" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="I30" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="J30" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7663,25 +7711,25 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="E31" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="F31" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="G31" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="H31" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="I31" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="J31" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7695,25 +7743,25 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="E32" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="F32" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="G32" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="H32" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="I32" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="J32" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7727,25 +7775,25 @@
         <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="E33" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="F33" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="G33" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="H33" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="I33" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="J33" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7753,28 +7801,28 @@
         <v>20330051920251</v>
       </c>
       <c r="B34" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C34" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D34" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="E34" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="F34" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="H34" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="I34" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="J34" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7788,25 +7836,25 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="E35" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="F35" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="G35" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="H35" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="I35" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="J35" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7817,25 +7865,25 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D36" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="E36" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="F36" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="G36" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="H36" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="J36" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7846,25 +7894,25 @@
         <v>284</v>
       </c>
       <c r="C37" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D37" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="E37" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="F37" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="H37" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="I37" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="J37" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7872,31 +7920,31 @@
         <v>20330051920257</v>
       </c>
       <c r="B38" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C38" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D38" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="E38" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="F38" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="G38" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="H38" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="I38" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="J38" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7910,19 +7958,19 @@
         <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="E39" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="F39" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="G39" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="H39" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -7936,19 +7984,19 @@
         <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="E40" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="F40" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="G40" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="H40" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
